--- a/output/fit_clients/fit_round_288.xlsx
+++ b/output/fit_clients/fit_round_288.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2148944989.147565</v>
+        <v>2498216155.976593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07481775626505141</v>
+        <v>0.08072610481168095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04055518645849669</v>
+        <v>0.03841147784037253</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1074472510.224669</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2554862760.263259</v>
+        <v>1671072817.225167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1765199804792913</v>
+        <v>0.1548098215495671</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03945282219526362</v>
+        <v>0.04376476046965599</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1277431506.122792</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4879931036.55194</v>
+        <v>4914522375.439496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1329916535109383</v>
+        <v>0.1269674191124526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02948028113847214</v>
+        <v>0.03236397830371375</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2439965594.789937</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3154210824.712114</v>
+        <v>4015868277.307852</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07072106019103402</v>
+        <v>0.07963119556873755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04262364162168798</v>
+        <v>0.04285916683810152</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1577105472.034671</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2559392975.066577</v>
+        <v>2206149690.657269</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1173184369645995</v>
+        <v>0.1460484794983472</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04671322819219074</v>
+        <v>0.05434378298698738</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1279696456.587663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2993365546.398594</v>
+        <v>2183949176.369381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.098249317113854</v>
+        <v>0.07045071929779412</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04200394974105226</v>
+        <v>0.04362691604967459</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>90</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1496682738.784191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2631884475.688828</v>
+        <v>3951695734.021855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1807428315802981</v>
+        <v>0.1968815877445889</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02977096604676533</v>
+        <v>0.03307739249350628</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1315942257.724351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2029546067.108279</v>
+        <v>2035757051.587834</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1794922174753047</v>
+        <v>0.1390201936076989</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02613516470640815</v>
+        <v>0.02382981621638788</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1014773056.071049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4689001078.452451</v>
+        <v>4583889861.382585</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1611357254737227</v>
+        <v>0.1642928069413517</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04962742355837816</v>
+        <v>0.03616686831316036</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>122</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2344500614.437489</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3083050847.803767</v>
+        <v>2963835608.452257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1862009745201125</v>
+        <v>0.1418943189801612</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04376841055336825</v>
+        <v>0.04231546109014431</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>119</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1541525372.679816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2695113110.124406</v>
+        <v>2270869382.710498</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1418083362553873</v>
+        <v>0.1262708972449302</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04555852642337557</v>
+        <v>0.04810902893533517</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>98</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1347556545.137032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5308664639.252116</v>
+        <v>4926957023.702902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06184366631527419</v>
+        <v>0.08413037746166339</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02572751390899802</v>
+        <v>0.02413152406268169</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2654332308.084669</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2493413243.245112</v>
+        <v>3305574406.337444</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1214141368798661</v>
+        <v>0.1430073870017999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04054497538341623</v>
+        <v>0.03375698339114357</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>92</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1246706692.746954</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1744440783.104763</v>
+        <v>1443124823.382726</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09943029821895699</v>
+        <v>0.09445014755426077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03847183015520553</v>
+        <v>0.04056473686197951</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>872220532.4697772</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2519764645.371367</v>
+        <v>2115912464.746523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08062568266465929</v>
+        <v>0.1068727510421835</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03512255369480182</v>
+        <v>0.05138305457143993</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1259882351.747993</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4531244312.9752</v>
+        <v>3538465178.040466</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1263717119218174</v>
+        <v>0.1707368787523547</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0323379084483994</v>
+        <v>0.04730946985018246</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2265622164.818453</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2826671348.597062</v>
+        <v>3901070410.223417</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1611137432135387</v>
+        <v>0.117313598135453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02537192822654116</v>
+        <v>0.02471365759693151</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>94</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1413335717.069773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1053279978.956923</v>
+        <v>843387097.9326018</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1847206711274029</v>
+        <v>0.1563108256156867</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02288386372267178</v>
+        <v>0.02195765395534648</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>526640031.6910018</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2125006696.679561</v>
+        <v>1777230898.750345</v>
       </c>
       <c r="F20" t="n">
-        <v>0.147663053002438</v>
+        <v>0.1144188164476911</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02854891294006019</v>
+        <v>0.02969491621586537</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1062503361.369271</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2055559827.809488</v>
+        <v>1923127444.785289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06287379240190628</v>
+        <v>0.07380502208284027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03197238547613266</v>
+        <v>0.03076491451928576</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1027779944.554313</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2952871162.398914</v>
+        <v>2864564746.523915</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1023517053723095</v>
+        <v>0.1434476371484268</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04809369600699415</v>
+        <v>0.04555361897260822</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>80</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1476435645.55412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1515367888.710023</v>
+        <v>1308409679.665578</v>
       </c>
       <c r="F23" t="n">
-        <v>0.173141908635047</v>
+        <v>0.112960430564725</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05143773751864804</v>
+        <v>0.05203047225928043</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>757683927.6972244</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4146494932.563472</v>
+        <v>3599500980.182014</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1042761204942669</v>
+        <v>0.146055875451461</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0367570863572312</v>
+        <v>0.02935418429802944</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>84</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2073247424.424207</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1356581989.455657</v>
+        <v>1003377696.956267</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09742938502534693</v>
+        <v>0.07729129406294585</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02746748692752322</v>
+        <v>0.01894179418092497</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>678290976.687573</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1358759028.51244</v>
+        <v>917200345.5563459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1095611269041957</v>
+        <v>0.1135234384669262</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03488211326039135</v>
+        <v>0.02643871278173954</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>679379574.1967056</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4111404828.600059</v>
+        <v>4155145185.556771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1384527483587877</v>
+        <v>0.1088672968798088</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01688103109687881</v>
+        <v>0.02397131674316021</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2055702418.904571</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2847237251.086372</v>
+        <v>2676478491.242076</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1439520269669841</v>
+        <v>0.1200884670649639</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03034620651182373</v>
+        <v>0.03634437886676304</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>95</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1423618623.509104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5316188114.166777</v>
+        <v>5794252358.145793</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1286172007547552</v>
+        <v>0.1097766405718692</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02859714714159014</v>
+        <v>0.0366150972696919</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>127</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2658093982.738281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1709401598.373424</v>
+        <v>1851043435.710932</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1245646137755031</v>
+        <v>0.1025999755809323</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03460605311503744</v>
+        <v>0.04018181669953522</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>854700803.5237763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1265346850.207402</v>
+        <v>912607935.4366785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1057172466159446</v>
+        <v>0.07618505663125294</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05027252398476668</v>
+        <v>0.04083297489174161</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>632673361.1923968</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1456937646.468447</v>
+        <v>1650651030.86625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08884965737660606</v>
+        <v>0.08469052118515062</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03726548080918297</v>
+        <v>0.03422308520773357</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>728468882.6627666</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2008058614.838713</v>
+        <v>2731875227.916763</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1483559058220241</v>
+        <v>0.1471309010344438</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05412780681332524</v>
+        <v>0.03813973351765156</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1004029387.503725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1117517408.027452</v>
+        <v>1568133438.920656</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07954196059715886</v>
+        <v>0.1121050758672695</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02055005226136793</v>
+        <v>0.01954831760420137</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>558758722.565245</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1075162011.207655</v>
+        <v>1176693762.578883</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07711261562737008</v>
+        <v>0.08645324000287627</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02933584429598033</v>
+        <v>0.03891826342557302</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>537581007.7164867</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2299123300.677739</v>
+        <v>2702678194.174029</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1167936850827987</v>
+        <v>0.1382290644344871</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02589103705223493</v>
+        <v>0.02617370778194831</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1149561688.388791</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2221088586.887896</v>
+        <v>2412511864.467634</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1058251410980992</v>
+        <v>0.08374650042711577</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02840424264523349</v>
+        <v>0.0323522341219012</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1110544351.17139</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1741263477.417862</v>
+        <v>1577859620.87459</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0805083901793861</v>
+        <v>0.07532126906463525</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03416691870633282</v>
+        <v>0.03801936773727257</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>870631753.884627</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2204880576.282149</v>
+        <v>1667772395.529817</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1745869701560602</v>
+        <v>0.1593707641146409</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02482432339872728</v>
+        <v>0.02695237102230589</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1102440251.568933</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1574232343.128873</v>
+        <v>1811047472.782433</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1119877437028988</v>
+        <v>0.1243073506219056</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05412002777277326</v>
+        <v>0.06016970972788298</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>787116119.1906871</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2329629147.45537</v>
+        <v>1784346767.978084</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1108721788908556</v>
+        <v>0.1480502478388074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04184567372080588</v>
+        <v>0.04565835158342878</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>71</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1164814615.651149</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4014644989.671244</v>
+        <v>3221940040.820708</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07814185066465527</v>
+        <v>0.08392582906595132</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03155088371008765</v>
+        <v>0.03155003461618731</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>95</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2007322525.103444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2069389123.848645</v>
+        <v>2690432400.122538</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1548554199013207</v>
+        <v>0.1855712056313253</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02018409848775978</v>
+        <v>0.02065963499816099</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>105</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1034694653.892633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2239841878.900033</v>
+        <v>1761193849.858874</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08922040283058807</v>
+        <v>0.0889456359402834</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02787098215226579</v>
+        <v>0.03611878725159286</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1119921093.64733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1924728161.208691</v>
+        <v>1659499026.24972</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1844344731888769</v>
+        <v>0.1759580825843098</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05440830198217204</v>
+        <v>0.03396286817217765</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>962364063.8855919</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3625086281.609371</v>
+        <v>5539319598.33659</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1282206132657236</v>
+        <v>0.1759556501990294</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0593560972190693</v>
+        <v>0.03973545111797926</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>102</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1812543088.87147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4705015713.595918</v>
+        <v>4833047182.068988</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1833373251259859</v>
+        <v>0.1449430092168267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04389678060171156</v>
+        <v>0.05514189678032916</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>77</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2352507895.87113</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4098518368.308726</v>
+        <v>2914229781.80675</v>
       </c>
       <c r="F48" t="n">
-        <v>0.078516008330886</v>
+        <v>0.08419121939780862</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02952057190829839</v>
+        <v>0.02903866659328702</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>98</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2049259212.795951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1431471699.109493</v>
+        <v>1496101927.521847</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1209973293549572</v>
+        <v>0.1785733512901312</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03597280215336118</v>
+        <v>0.03844942518220638</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>715735892.2228485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2845560509.100763</v>
+        <v>4143829238.450869</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1651031628050152</v>
+        <v>0.1352164104873292</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03481630532977573</v>
+        <v>0.04940041133740794</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>98</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1422780325.388139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>947519063.2588594</v>
+        <v>1019110463.123046</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1579595942331102</v>
+        <v>0.1424166899220611</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0341983860601043</v>
+        <v>0.04504334303856905</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>473759624.0982401</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4312139450.088182</v>
+        <v>3385462199.833934</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1302767967962793</v>
+        <v>0.1244876602135784</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05538796567914692</v>
+        <v>0.05691199217735767</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>119</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2156069763.149211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2423876867.737281</v>
+        <v>2436410698.243424</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1801540947692961</v>
+        <v>0.1908791006645939</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02165709775499709</v>
+        <v>0.02315347836781586</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>82</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1211938506.08723</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4446038279.865755</v>
+        <v>3439138326.939318</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1103683993424591</v>
+        <v>0.1510799117084888</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03194468785642273</v>
+        <v>0.03619003681775611</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2223019239.047688</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4075025704.342841</v>
+        <v>4834790692.583025</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2076881585702529</v>
+        <v>0.2082390870992388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03014818710504592</v>
+        <v>0.02532225801314908</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>75</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2037512830.39054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1364473880.20914</v>
+        <v>1799579465.003762</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1259650422573121</v>
+        <v>0.1374993581103896</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04294138867334916</v>
+        <v>0.03975223440376679</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>682237002.4629011</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4452517178.128531</v>
+        <v>3939217021.514682</v>
       </c>
       <c r="F57" t="n">
-        <v>0.127170434453408</v>
+        <v>0.1685392040425796</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02668790334151046</v>
+        <v>0.02454049945172654</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>91</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2226258715.426275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1544729613.224659</v>
+        <v>1406511858.635304</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1396237075275139</v>
+        <v>0.1885488258664553</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02987368447659012</v>
+        <v>0.03883792839593209</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>772364833.6553848</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5085470143.510955</v>
+        <v>3578229919.376605</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1037112597602188</v>
+        <v>0.113305871335482</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04156688082842137</v>
+        <v>0.04108055345324316</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2542734995.340907</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3748789511.599952</v>
+        <v>2648378630.58934</v>
       </c>
       <c r="F60" t="n">
-        <v>0.17438508217301</v>
+        <v>0.1302229310659532</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02462023546724813</v>
+        <v>0.03043133446156923</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1874394904.695506</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3365115649.68132</v>
+        <v>2817582699.858453</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1219925854480033</v>
+        <v>0.1274937308878197</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02970330807450124</v>
+        <v>0.02796989032457004</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>99</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1682557770.877069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1958534931.402261</v>
+        <v>1622220628.124208</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1835219402917172</v>
+        <v>0.1227696636058616</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03661689142352842</v>
+        <v>0.04135847633827489</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>979267517.5688149</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3429237705.347396</v>
+        <v>5363727013.14136</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07170912037057066</v>
+        <v>0.06671605135553174</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03168154521999404</v>
+        <v>0.03204087930218402</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1714618940.51353</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4956494821.377833</v>
+        <v>4107676062.338851</v>
       </c>
       <c r="F64" t="n">
-        <v>0.123722977221677</v>
+        <v>0.162537982464425</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02525560241175539</v>
+        <v>0.02690014859787569</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>90</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2478247513.824382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5201554208.774275</v>
+        <v>5680874969.343806</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1246712236798129</v>
+        <v>0.1566499542354808</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03168896804225306</v>
+        <v>0.02824172722448929</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>103</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2600777051.273855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4714993884.865231</v>
+        <v>4592905726.809148</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1086588111781151</v>
+        <v>0.1531922865737076</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04209667129378386</v>
+        <v>0.04942688531706582</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>84</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2357496954.306025</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2833385242.143026</v>
+        <v>2724702839.590885</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08085159588723374</v>
+        <v>0.06224876772765473</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04542103186917779</v>
+        <v>0.04606415965738632</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>92</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1416692653.474634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5363636601.437024</v>
+        <v>4596098739.93774</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1352923497583136</v>
+        <v>0.1101283410848542</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03673792228273634</v>
+        <v>0.03678300765514919</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2681818379.140556</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1950347940.466263</v>
+        <v>1982680100.325204</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1833066704177461</v>
+        <v>0.1218640091225805</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03694838538233421</v>
+        <v>0.04603209388886569</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>975173968.767029</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3104800813.387523</v>
+        <v>3328406599.101328</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07762258680928641</v>
+        <v>0.08340249879506696</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04966677597526021</v>
+        <v>0.03727400853124629</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>82</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1552400390.575673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5467743671.981514</v>
+        <v>4712919706.591208</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1193459985021757</v>
+        <v>0.1266245938728204</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02543745232683877</v>
+        <v>0.03325888621943147</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>105</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2733871976.598893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1755874433.743305</v>
+        <v>1430058809.107964</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09378035182253326</v>
+        <v>0.1083602903976134</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04985313897509036</v>
+        <v>0.03592186280776064</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>877937202.5867671</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2525462730.158829</v>
+        <v>2196764773.639144</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08749793360437814</v>
+        <v>0.08727033183068394</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04902186030265712</v>
+        <v>0.03608933072293774</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>109</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1262731404.525263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2873867424.541104</v>
+        <v>3988408097.650333</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1683587999931422</v>
+        <v>0.1187578008135593</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03335363324760456</v>
+        <v>0.03195375005717691</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>98</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1436933788.539209</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1741216838.155922</v>
+        <v>2083249906.230647</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1126746803657362</v>
+        <v>0.1386824378956092</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03752167864718725</v>
+        <v>0.03677123222132764</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>870608407.5224985</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4058603926.023702</v>
+        <v>4376213575.446046</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09146067394111888</v>
+        <v>0.104138652781266</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03304585532942315</v>
+        <v>0.03401368393611107</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2029301950.186107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1961485415.470472</v>
+        <v>1548568552.799906</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1653922377806132</v>
+        <v>0.1390261828863566</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03069556508055133</v>
+        <v>0.02430910832226568</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>980742763.5648675</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4134680298.477049</v>
+        <v>3029773134.923619</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1199218737359815</v>
+        <v>0.0831928347920106</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05145864939155485</v>
+        <v>0.05676022839544127</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>100</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2067340105.343478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1605779163.530687</v>
+        <v>1503538235.770171</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1741717474386279</v>
+        <v>0.146354229114757</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02681272007792053</v>
+        <v>0.02456115890482475</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>802889634.444141</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4434570508.17275</v>
+        <v>5291492980.638069</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1104488757724528</v>
+        <v>0.09208493683793056</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03029136399792816</v>
+        <v>0.03453561206654469</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2217285275.182889</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4880091086.631689</v>
+        <v>4831469865.367742</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08838750516660519</v>
+        <v>0.08425378456647394</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02706715799625248</v>
+        <v>0.03030405162847749</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2440045539.206554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4169778885.663625</v>
+        <v>3826869037.355139</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1605465418750769</v>
+        <v>0.2058500707840149</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01825069900091992</v>
+        <v>0.01839841176796978</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>101</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2084889473.110309</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2241614340.982285</v>
+        <v>1963632874.15974</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1094447017492295</v>
+        <v>0.1046019461898958</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04254176083367476</v>
+        <v>0.03754455837053654</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1120807185.838722</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2034905748.694506</v>
+        <v>2261641111.300472</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1104204694913508</v>
+        <v>0.1064407769366564</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03823540698849566</v>
+        <v>0.03338035683005421</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1017452874.228961</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3181665828.755862</v>
+        <v>3259040225.715504</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1623231856480579</v>
+        <v>0.1723932685687118</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0548911741954573</v>
+        <v>0.03711608383512376</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>108</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1590832994.569524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2188068099.684405</v>
+        <v>2591229305.845241</v>
       </c>
       <c r="F86" t="n">
-        <v>0.164145210695567</v>
+        <v>0.1451710198093437</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01855964870480611</v>
+        <v>0.02181428952102393</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>38</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1094034103.630059</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1142022028.142068</v>
+        <v>1164014537.383943</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1604794948668617</v>
+        <v>0.176818700958991</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02741179486979474</v>
+        <v>0.03837923689019795</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>571011054.793439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3739291442.959387</v>
+        <v>3684307684.010249</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1367460587710061</v>
+        <v>0.1667423276576327</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03905629487194912</v>
+        <v>0.03181864167027873</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>114</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1869645824.978129</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2229495219.872661</v>
+        <v>2189934626.101153</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1423455583896908</v>
+        <v>0.1333982212600617</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03496831733944671</v>
+        <v>0.03659542223888726</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1114747704.512223</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2044927360.386199</v>
+        <v>2126542536.90739</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08379140514891402</v>
+        <v>0.1177973413046824</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04974927429298723</v>
+        <v>0.05644234632255855</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1022463758.642758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1287465010.999644</v>
+        <v>1286366760.081732</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1182198448328818</v>
+        <v>0.1591981740893713</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03865866101072871</v>
+        <v>0.05255188984917209</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>643732572.7410619</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2284204139.676504</v>
+        <v>2622409971.30808</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07845623767549501</v>
+        <v>0.08717935988459492</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03160989547955617</v>
+        <v>0.04331764607757783</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1142102037.525545</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4756251794.329507</v>
+        <v>3887937153.52613</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08855085124887818</v>
+        <v>0.09608365102968168</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03630883223902141</v>
+        <v>0.04085433106770893</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2378125848.879905</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1801394921.524848</v>
+        <v>1684464296.129949</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1554200945996023</v>
+        <v>0.1351179253623769</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0327924140392158</v>
+        <v>0.02859212027212328</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>900697433.2473204</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2423849648.976192</v>
+        <v>2086964043.911803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09997747961177285</v>
+        <v>0.1348056533159488</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04040380762572646</v>
+        <v>0.03781161327824707</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>70</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1211924866.102067</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1883941959.142533</v>
+        <v>1673981976.555781</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1072426364014274</v>
+        <v>0.115216977453769</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04664314286569025</v>
+        <v>0.0439537018590274</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>941970978.9347883</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4212321113.033502</v>
+        <v>3670300812.627853</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1710594025265844</v>
+        <v>0.1335179359521552</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01814101656673072</v>
+        <v>0.02426307101630075</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>93</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2106160629.966832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2811302010.883705</v>
+        <v>3951216053.49115</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1282659634309499</v>
+        <v>0.1081691046138448</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02679877575739728</v>
+        <v>0.01977017166954087</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1405650977.328188</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2217010703.427612</v>
+        <v>2855489517.506999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1291989149135999</v>
+        <v>0.1277247363707381</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03322592397023669</v>
+        <v>0.03164438233633685</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>90</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1108505280.984943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4493294856.749177</v>
+        <v>3882666734.819366</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1497530452135705</v>
+        <v>0.1581329304465164</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02406725113428198</v>
+        <v>0.02120839284182557</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2246647538.438772</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2982504872.290321</v>
+        <v>3475174634.263131</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1585869376468564</v>
+        <v>0.1474518783256575</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04409766220146594</v>
+        <v>0.04212777873182817</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>114</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1491252522.930779</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_288.xlsx
+++ b/output/fit_clients/fit_round_288.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2498216155.976593</v>
+        <v>1891193570.766211</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08072610481168095</v>
+        <v>0.1136300447246797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03841147784037253</v>
+        <v>0.04555118969958907</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1671072817.225167</v>
+        <v>2599728750.916302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1548098215495671</v>
+        <v>0.146285354410855</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04376476046965599</v>
+        <v>0.04865965387439601</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4914522375.439496</v>
+        <v>4529490647.994234</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1269674191124526</v>
+        <v>0.1447192327471561</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03236397830371375</v>
+        <v>0.0312930611659119</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4015868277.307852</v>
+        <v>3070787336.377085</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07963119556873755</v>
+        <v>0.09742234513601687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04285916683810152</v>
+        <v>0.04853726146055327</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2206149690.657269</v>
+        <v>2746226701.872501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1460484794983472</v>
+        <v>0.1052847826054533</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05434378298698738</v>
+        <v>0.04080369750402489</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2183949176.369381</v>
+        <v>2076940888.738551</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07045071929779412</v>
+        <v>0.07037381885049268</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04362691604967459</v>
+        <v>0.04733736450351429</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3951695734.021855</v>
+        <v>3530327125.777753</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1968815877445889</v>
+        <v>0.1352609371162309</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03307739249350628</v>
+        <v>0.02575218803081539</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2035757051.587834</v>
+        <v>1584379335.529997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1390201936076989</v>
+        <v>0.162766347292136</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02382981621638788</v>
+        <v>0.03310052180818148</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4583889861.382585</v>
+        <v>4077859160.680373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1642928069413517</v>
+        <v>0.169450308091481</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03616686831316036</v>
+        <v>0.05001993095484378</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2963835608.452257</v>
+        <v>2996502041.692881</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1418943189801612</v>
+        <v>0.1659967713724696</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04231546109014431</v>
+        <v>0.03489693235614226</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2270869382.710498</v>
+        <v>2852057955.726762</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1262708972449302</v>
+        <v>0.1268939712201076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04810902893533517</v>
+        <v>0.05291560854454127</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4926957023.702902</v>
+        <v>4449873871.874637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08413037746166339</v>
+        <v>0.07065248067145151</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02413152406268169</v>
+        <v>0.02689772268738475</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3305574406.337444</v>
+        <v>3094393840.675346</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1430073870017999</v>
+        <v>0.1193002450390126</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03375698339114357</v>
+        <v>0.02699133666408331</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1443124823.382726</v>
+        <v>1658529860.003698</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09445014755426077</v>
+        <v>0.07847002254905693</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04056473686197951</v>
+        <v>0.0325535710720115</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2115912464.746523</v>
+        <v>2519609636.227362</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1068727510421835</v>
+        <v>0.07624239732688853</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05138305457143993</v>
+        <v>0.04489834954716478</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3538465178.040466</v>
+        <v>4967425789.090521</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1707368787523547</v>
+        <v>0.1294547354767132</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04730946985018246</v>
+        <v>0.03354822690382425</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3901070410.223417</v>
+        <v>3987148099.134501</v>
       </c>
       <c r="F18" t="n">
-        <v>0.117313598135453</v>
+        <v>0.1259147878239364</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02471365759693151</v>
+        <v>0.02522939885779475</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>843387097.9326018</v>
+        <v>912206921.5095198</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1563108256156867</v>
+        <v>0.1863312958113726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02195765395534648</v>
+        <v>0.02457625384770827</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1777230898.750345</v>
+        <v>2048228941.767053</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1144188164476911</v>
+        <v>0.1603799973318791</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02969491621586537</v>
+        <v>0.02186969469394629</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1923127444.785289</v>
+        <v>1760484262.528667</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07380502208284027</v>
+        <v>0.08779096020574291</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03076491451928576</v>
+        <v>0.02879262263892188</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2864564746.523915</v>
+        <v>3945018761.272057</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1434476371484268</v>
+        <v>0.1435296803650039</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04555361897260822</v>
+        <v>0.04266648799525692</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1308409679.665578</v>
+        <v>1226114254.006785</v>
       </c>
       <c r="F23" t="n">
-        <v>0.112960430564725</v>
+        <v>0.1247410006489637</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05203047225928043</v>
+        <v>0.04559556674249411</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3599500980.182014</v>
+        <v>2664952260.205427</v>
       </c>
       <c r="F24" t="n">
-        <v>0.146055875451461</v>
+        <v>0.09663636443416851</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02935418429802944</v>
+        <v>0.02385394351789663</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1003377696.956267</v>
+        <v>1255484609.147581</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07729129406294585</v>
+        <v>0.09697298069372125</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01894179418092497</v>
+        <v>0.02207811506649123</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>917200345.5563459</v>
+        <v>1122520817.865177</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1135234384669262</v>
+        <v>0.07604202314359559</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02643871278173954</v>
+        <v>0.03475123911713503</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4155145185.556771</v>
+        <v>4437547863.219022</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1088672968798088</v>
+        <v>0.1387220581689117</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02397131674316021</v>
+        <v>0.02551380493716194</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2676478491.242076</v>
+        <v>3067121462.44125</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1200884670649639</v>
+        <v>0.1285864579216504</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03634437886676304</v>
+        <v>0.0482852333121996</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5794252358.145793</v>
+        <v>5708216697.462196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1097766405718692</v>
+        <v>0.1446079916061926</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0366150972696919</v>
+        <v>0.03202917389301937</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1851043435.710932</v>
+        <v>2279066228.850991</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1025999755809323</v>
+        <v>0.1338134244364034</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04018181669953522</v>
+        <v>0.0314792077244621</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>912607935.4366785</v>
+        <v>1401638537.356405</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07618505663125294</v>
+        <v>0.07357299861741061</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04083297489174161</v>
+        <v>0.03770388596374519</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1650651030.86625</v>
+        <v>1187519927.682399</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08469052118515062</v>
+        <v>0.1147171960469731</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03422308520773357</v>
+        <v>0.02373578325703754</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2731875227.916763</v>
+        <v>2311249800.277382</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1471309010344438</v>
+        <v>0.1769168161134003</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03813973351765156</v>
+        <v>0.05719354565655749</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1568133438.920656</v>
+        <v>1424869351.212231</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1121050758672695</v>
+        <v>0.1020422172464305</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01954831760420137</v>
+        <v>0.02128145442888606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1176693762.578883</v>
+        <v>1355504992.904173</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08645324000287627</v>
+        <v>0.1170448483080817</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03891826342557302</v>
+        <v>0.03209376845255426</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2702678194.174029</v>
+        <v>3158183404.744658</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1382290644344871</v>
+        <v>0.166161582816892</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02617370778194831</v>
+        <v>0.02342166886991789</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2412511864.467634</v>
+        <v>2564404829.538128</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08374650042711577</v>
+        <v>0.08800306850641371</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0323522341219012</v>
+        <v>0.0269767391908145</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1577859620.87459</v>
+        <v>1951771212.9681</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07532126906463525</v>
+        <v>0.1054041615864321</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03801936773727257</v>
+        <v>0.02414991697993876</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1667772395.529817</v>
+        <v>1909780621.481778</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1593707641146409</v>
+        <v>0.161957309832886</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02695237102230589</v>
+        <v>0.02844493815176444</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1811047472.782433</v>
+        <v>1513365548.507411</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1243073506219056</v>
+        <v>0.1040893530734358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06016970972788298</v>
+        <v>0.04704794093294199</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1784346767.978084</v>
+        <v>2523639708.023098</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1480502478388074</v>
+        <v>0.1417576900961449</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04565835158342878</v>
+        <v>0.04044254798521819</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3221940040.820708</v>
+        <v>3854470006.487676</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08392582906595132</v>
+        <v>0.09174997422967152</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03155003461618731</v>
+        <v>0.02937217543679565</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2690432400.122538</v>
+        <v>2253893835.664215</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1855712056313253</v>
+        <v>0.197184899875363</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02065963499816099</v>
+        <v>0.0178222094587104</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1761193849.858874</v>
+        <v>2233207044.567497</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0889456359402834</v>
+        <v>0.08315016925746735</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03611878725159286</v>
+        <v>0.02543706398758084</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1659499026.24972</v>
+        <v>2182565392.793169</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1759580825843098</v>
+        <v>0.1278657837427658</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03396286817217765</v>
+        <v>0.05403782054295001</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5539319598.33659</v>
+        <v>5214756778.373001</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759556501990294</v>
+        <v>0.1390169146179936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03973545111797926</v>
+        <v>0.05195211353489439</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4833047182.068988</v>
+        <v>5007204114.777721</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1449430092168267</v>
+        <v>0.1749180173219534</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05514189678032916</v>
+        <v>0.05546876007624572</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2914229781.80675</v>
+        <v>4260834231.78809</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08419121939780862</v>
+        <v>0.07238013136144644</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02903866659328702</v>
+        <v>0.02872312398239339</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1496101927.521847</v>
+        <v>1471230654.256909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1785733512901312</v>
+        <v>0.119925063484972</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03844942518220638</v>
+        <v>0.04000609616903266</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4143829238.450869</v>
+        <v>3119803327.848711</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1352164104873292</v>
+        <v>0.1477243664766855</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04940041133740794</v>
+        <v>0.04083674434740842</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1019110463.123046</v>
+        <v>1083941012.015744</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1424166899220611</v>
+        <v>0.1769790266037415</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04504334303856905</v>
+        <v>0.04473906885549789</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3385462199.833934</v>
+        <v>3379944687.704714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1244876602135784</v>
+        <v>0.1004426987726518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05691199217735767</v>
+        <v>0.04864212640499017</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2436410698.243424</v>
+        <v>2951953083.039598</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1908791006645939</v>
+        <v>0.194789024766544</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02315347836781586</v>
+        <v>0.02918237051942624</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3439138326.939318</v>
+        <v>4527906914.515945</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1510799117084888</v>
+        <v>0.1183058541281</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03619003681775611</v>
+        <v>0.0518754719143058</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4834790692.583025</v>
+        <v>4430436437.378478</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2082390870992388</v>
+        <v>0.1823292966623664</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02532225801314908</v>
+        <v>0.03082378807737628</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1799579465.003762</v>
+        <v>1782516555.081568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1374993581103896</v>
+        <v>0.1250926225473966</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03975223440376679</v>
+        <v>0.04606966151887457</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3939217021.514682</v>
+        <v>3051702962.91764</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1685392040425796</v>
+        <v>0.183156643851015</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02454049945172654</v>
+        <v>0.01724592877168174</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1406511858.635304</v>
+        <v>1315349977.241004</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1885488258664553</v>
+        <v>0.2018420604740922</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03883792839593209</v>
+        <v>0.02421515710215654</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3578229919.376605</v>
+        <v>5348810820.306268</v>
       </c>
       <c r="F59" t="n">
-        <v>0.113305871335482</v>
+        <v>0.122564765351075</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04108055345324316</v>
+        <v>0.03591245667464273</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2648378630.58934</v>
+        <v>2382859945.342773</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1302229310659532</v>
+        <v>0.1523698196525809</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03043133446156923</v>
+        <v>0.02393022227656031</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2817582699.858453</v>
+        <v>2829356603.331265</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1274937308878197</v>
+        <v>0.1680856090003427</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02796989032457004</v>
+        <v>0.02838271194899706</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1622220628.124208</v>
+        <v>2052828704.883334</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1227696636058616</v>
+        <v>0.1711065768025047</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04135847633827489</v>
+        <v>0.04517666850102631</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5363727013.14136</v>
+        <v>4197161549.259025</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06671605135553174</v>
+        <v>0.1021798660929971</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03204087930218402</v>
+        <v>0.04710713444501326</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4107676062.338851</v>
+        <v>5107638987.585138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.162537982464425</v>
+        <v>0.1228567843516864</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02690014859787569</v>
+        <v>0.03227202068721352</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5680874969.343806</v>
+        <v>4085377076.125113</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1566499542354808</v>
+        <v>0.1562324364820468</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02824172722448929</v>
+        <v>0.03188425777286894</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4592905726.809148</v>
+        <v>4980666909.88134</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1531922865737076</v>
+        <v>0.10498789401644</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04942688531706582</v>
+        <v>0.04483193932772794</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2724702839.590885</v>
+        <v>2137995624.730946</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06224876772765473</v>
+        <v>0.0818575190782319</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04606415965738632</v>
+        <v>0.03309812000600785</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4596098739.93774</v>
+        <v>5813138223.150729</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1101283410848542</v>
+        <v>0.1039609982813949</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03678300765514919</v>
+        <v>0.04021385700160458</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1982680100.325204</v>
+        <v>2293600191.849057</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1218640091225805</v>
+        <v>0.1837060591688443</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04603209388886569</v>
+        <v>0.04709725787576969</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3328406599.101328</v>
+        <v>3625438496.657913</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08340249879506696</v>
+        <v>0.07550151808060453</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03727400853124629</v>
+        <v>0.04042738680515615</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4712919706.591208</v>
+        <v>4191689422.104517</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1266245938728204</v>
+        <v>0.1798465092473582</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03325888621943147</v>
+        <v>0.02054538180370594</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1430058809.107964</v>
+        <v>1474118380.43307</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1083602903976134</v>
+        <v>0.09330769465057503</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03592186280776064</v>
+        <v>0.04184102332178025</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2196764773.639144</v>
+        <v>2369599142.693207</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08727033183068394</v>
+        <v>0.09068362185208206</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03608933072293774</v>
+        <v>0.03967049625665062</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3988408097.650333</v>
+        <v>3702695655.756721</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1187578008135593</v>
+        <v>0.1234542610563166</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03195375005717691</v>
+        <v>0.02969312160694314</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2083249906.230647</v>
+        <v>2252126743.938879</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1386824378956092</v>
+        <v>0.1220994045128918</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03677123222132764</v>
+        <v>0.03097626639497173</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4376213575.446046</v>
+        <v>4970259659.347145</v>
       </c>
       <c r="F76" t="n">
-        <v>0.104138652781266</v>
+        <v>0.1238513213883375</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03401368393611107</v>
+        <v>0.02439155478405925</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1548568552.799906</v>
+        <v>1686291670.29166</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1390261828863566</v>
+        <v>0.173667605624098</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02430910832226568</v>
+        <v>0.02254325766844047</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3029773134.923619</v>
+        <v>3963997143.242476</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0831928347920106</v>
+        <v>0.1263872810024661</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05676022839544127</v>
+        <v>0.03574966318920252</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1503538235.770171</v>
+        <v>1881032206.602318</v>
       </c>
       <c r="F79" t="n">
-        <v>0.146354229114757</v>
+        <v>0.1314571070143954</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02456115890482475</v>
+        <v>0.02674929554071252</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5291492980.638069</v>
+        <v>3518016682.56938</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09208493683793056</v>
+        <v>0.1104709360082478</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03453561206654469</v>
+        <v>0.02486605641894615</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4831469865.367742</v>
+        <v>4380958798.788034</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08425378456647394</v>
+        <v>0.1012389424899108</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03030405162847749</v>
+        <v>0.02390845892783599</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3826869037.355139</v>
+        <v>3659708409.538548</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2058500707840149</v>
+        <v>0.1700210778221297</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01839841176796978</v>
+        <v>0.02456318908596084</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1963632874.15974</v>
+        <v>1766759747.363393</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1046019461898958</v>
+        <v>0.1139082075924444</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03754455837053654</v>
+        <v>0.04557530878995489</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2261641111.300472</v>
+        <v>2433891808.227508</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1064407769366564</v>
+        <v>0.07884924821892286</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03338035683005421</v>
+        <v>0.03228015600846894</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3259040225.715504</v>
+        <v>2232881660.048278</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1723932685687118</v>
+        <v>0.1484817972990873</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03711608383512376</v>
+        <v>0.05324713233539196</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2591229305.845241</v>
+        <v>2420088810.24191</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1451710198093437</v>
+        <v>0.1137308472749014</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02181428952102393</v>
+        <v>0.02112943953990059</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1164014537.383943</v>
+        <v>1018453631.467836</v>
       </c>
       <c r="F87" t="n">
-        <v>0.176818700958991</v>
+        <v>0.1552909390656275</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03837923689019795</v>
+        <v>0.03728608591967796</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3684307684.010249</v>
+        <v>3568975076.383756</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1667423276576327</v>
+        <v>0.1738624087095765</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03181864167027873</v>
+        <v>0.02875154686831376</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2189934626.101153</v>
+        <v>2571961415.013678</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1333982212600617</v>
+        <v>0.1488630001021798</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03659542223888726</v>
+        <v>0.02636629162219307</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2126542536.90739</v>
+        <v>1830387029.526772</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1177973413046824</v>
+        <v>0.08798809116980943</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05644234632255855</v>
+        <v>0.05285940446844212</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1286366760.081732</v>
+        <v>1995728668.114513</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1591981740893713</v>
+        <v>0.1772596850780454</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05255188984917209</v>
+        <v>0.06090768759387289</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2622409971.30808</v>
+        <v>2055285586.401658</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08717935988459492</v>
+        <v>0.09165162443903767</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04331764607757783</v>
+        <v>0.03615174901513814</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3887937153.52613</v>
+        <v>4236592109.008668</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09608365102968168</v>
+        <v>0.09989211173807319</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04085433106770893</v>
+        <v>0.04405756120611692</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1684464296.129949</v>
+        <v>1933716326.133959</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1351179253623769</v>
+        <v>0.1586732638196891</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02859212027212328</v>
+        <v>0.03133162095014824</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2086964043.911803</v>
+        <v>2755600847.032241</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1348056533159488</v>
+        <v>0.1244230203951307</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03781161327824707</v>
+        <v>0.04854817401682191</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1673981976.555781</v>
+        <v>1905900511.065299</v>
       </c>
       <c r="F96" t="n">
-        <v>0.115216977453769</v>
+        <v>0.09008573550388259</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0439537018590274</v>
+        <v>0.02957788031742383</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3670300812.627853</v>
+        <v>3812788707.775223</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1335179359521552</v>
+        <v>0.1621371314478274</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02426307101630075</v>
+        <v>0.02201003500533091</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3951216053.49115</v>
+        <v>3071628437.916118</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1081691046138448</v>
+        <v>0.1154215318718155</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01977017166954087</v>
+        <v>0.02892378889224233</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2855489517.506999</v>
+        <v>2875413977.189394</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1277247363707381</v>
+        <v>0.1410260905889738</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03164438233633685</v>
+        <v>0.0339551121851596</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3882666734.819366</v>
+        <v>2921085384.993158</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1581329304465164</v>
+        <v>0.1757278701924211</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02120839284182557</v>
+        <v>0.02707644765348317</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3475174634.263131</v>
+        <v>3027847326.737728</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1474518783256575</v>
+        <v>0.1846872196940972</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04212777873182817</v>
+        <v>0.05159791977081893</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_288.xlsx
+++ b/output/fit_clients/fit_round_288.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1891193570.766211</v>
+        <v>2105164644.058753</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1136300447246797</v>
+        <v>0.07958369510391848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04555118969958907</v>
+        <v>0.03311660944949042</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2599728750.916302</v>
+        <v>2175921366.496714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.146285354410855</v>
+        <v>0.1480080436298698</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04865965387439601</v>
+        <v>0.04465774681543904</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4529490647.994234</v>
+        <v>3945292073.249129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1447192327471561</v>
+        <v>0.1429672706814368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0312930611659119</v>
+        <v>0.02612798868839835</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>152</v>
+      </c>
+      <c r="J4" t="n">
+        <v>288</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3070787336.377085</v>
+        <v>4035492186.828217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09742234513601687</v>
+        <v>0.06925672530300712</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04853726146055327</v>
+        <v>0.03242805084067906</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>117</v>
+      </c>
+      <c r="J5" t="n">
+        <v>288</v>
+      </c>
+      <c r="K5" t="n">
+        <v>102.8638807486979</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2746226701.872501</v>
+        <v>2133978133.491302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1052847826054533</v>
+        <v>0.1483915529407265</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04080369750402489</v>
+        <v>0.05293247212916889</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2076940888.738551</v>
+        <v>2632726921.588072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07037381885049268</v>
+        <v>0.07012964119257102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04733736450351429</v>
+        <v>0.04261394806905604</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3530327125.777753</v>
+        <v>3220707905.505251</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1352609371162309</v>
+        <v>0.2116927894992857</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02575218803081539</v>
+        <v>0.02802741334490449</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>77</v>
+      </c>
+      <c r="J8" t="n">
+        <v>286</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1584379335.529997</v>
+        <v>1399266393.57831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.162766347292136</v>
+        <v>0.193112027437335</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03310052180818148</v>
+        <v>0.03539554055425078</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4077859160.680373</v>
+        <v>5757517572.631622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.169450308091481</v>
+        <v>0.1723112170872972</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05001993095484378</v>
+        <v>0.03334444042276777</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>258</v>
+      </c>
+      <c r="J10" t="n">
+        <v>288</v>
+      </c>
+      <c r="K10" t="n">
+        <v>89.55520983512172</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2996502041.692881</v>
+        <v>2856310697.781275</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1659967713724696</v>
+        <v>0.1493794114384246</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03489693235614226</v>
+        <v>0.0471237686576015</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>117</v>
+      </c>
+      <c r="J11" t="n">
+        <v>286</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2852057955.726762</v>
+        <v>2856611027.378277</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1268939712201076</v>
+        <v>0.1498703183604471</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05291560854454127</v>
+        <v>0.03883817106767743</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4449873871.874637</v>
+        <v>3282421312.202012</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07065248067145151</v>
+        <v>0.0891875846030174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02689772268738475</v>
+        <v>0.02882905926252179</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>147</v>
+      </c>
+      <c r="J13" t="n">
+        <v>287</v>
+      </c>
+      <c r="K13" t="n">
+        <v>59.35314780464295</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3094393840.675346</v>
+        <v>3569320418.730508</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1193002450390126</v>
+        <v>0.1454910183345954</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02699133666408331</v>
+        <v>0.03489737006172095</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>284</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1658529860.003698</v>
+        <v>1384939944.529309</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07847002254905693</v>
+        <v>0.08172306286612566</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0325535710720115</v>
+        <v>0.0370526670880619</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2519609636.227362</v>
+        <v>2771550821.601615</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07624239732688853</v>
+        <v>0.0861731028335589</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04489834954716478</v>
+        <v>0.03957515895061773</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4967425789.090521</v>
+        <v>4714591794.371701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1294547354767132</v>
+        <v>0.1116704181972979</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03354822690382425</v>
+        <v>0.03228969600182145</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>137</v>
+      </c>
+      <c r="J17" t="n">
+        <v>287</v>
+      </c>
+      <c r="K17" t="n">
+        <v>83.47126320990186</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3987148099.134501</v>
+        <v>3593018130.54648</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1259147878239364</v>
+        <v>0.1330740657098303</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02522939885779475</v>
+        <v>0.03212193599078092</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>288</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>912206921.5095198</v>
+        <v>1214878040.431685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1863312958113726</v>
+        <v>0.1161677356031802</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02457625384770827</v>
+        <v>0.02557079056024342</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2048228941.767053</v>
+        <v>2775974024.291365</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1603799973318791</v>
+        <v>0.104015750138133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02186969469394629</v>
+        <v>0.02864049470862367</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1760484262.528667</v>
+        <v>2628002251.341084</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08779096020574291</v>
+        <v>0.09857439658285305</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02879262263892188</v>
+        <v>0.0422870094805186</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3945018761.272057</v>
+        <v>3867200890.980031</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1435296803650039</v>
+        <v>0.1379903185955496</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04266648799525692</v>
+        <v>0.03667222833136211</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>77</v>
+      </c>
+      <c r="J22" t="n">
+        <v>288</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1226114254.006785</v>
+        <v>1273676241.256701</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1247410006489637</v>
+        <v>0.1686937404951109</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04559556674249411</v>
+        <v>0.05082600066432233</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2664952260.205427</v>
+        <v>3340046374.405993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09663636443416851</v>
+        <v>0.1457738094061304</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02385394351789663</v>
+        <v>0.03435079632845157</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>85</v>
+      </c>
+      <c r="J24" t="n">
+        <v>287</v>
+      </c>
+      <c r="K24" t="n">
+        <v>59.25443143392769</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1255484609.147581</v>
+        <v>1361222396.909999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09697298069372125</v>
+        <v>0.08256255081174103</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02207811506649123</v>
+        <v>0.02585861004956427</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1122520817.865177</v>
+        <v>926509588.9916558</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07604202314359559</v>
+        <v>0.1219343763746612</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03475123911713503</v>
+        <v>0.02811664974085177</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4437547863.219022</v>
+        <v>4548734458.718297</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1387220581689117</v>
+        <v>0.09731340768010034</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02551380493716194</v>
+        <v>0.01757572534250658</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>118</v>
+      </c>
+      <c r="J27" t="n">
+        <v>287</v>
+      </c>
+      <c r="K27" t="n">
+        <v>80.9173242268795</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3067121462.44125</v>
+        <v>3212164707.037599</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1285864579216504</v>
+        <v>0.1328631976451555</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0482852333121996</v>
+        <v>0.03404117615271524</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>60</v>
+      </c>
+      <c r="J28" t="n">
+        <v>287</v>
+      </c>
+      <c r="K28" t="n">
+        <v>61.77646741401175</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5708216697.462196</v>
+        <v>4242907099.020383</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1446079916061926</v>
+        <v>0.09881407523710223</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03202917389301937</v>
+        <v>0.03973987531778216</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>273</v>
+      </c>
+      <c r="J29" t="n">
+        <v>288</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2279066228.850991</v>
+        <v>1619288547.727207</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1338134244364034</v>
+        <v>0.08450902295771202</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0314792077244621</v>
+        <v>0.02816718805381717</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1401638537.356405</v>
+        <v>1372006193.127813</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07357299861741061</v>
+        <v>0.06979455146602859</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03770388596374519</v>
+        <v>0.03900538891541033</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1187519927.682399</v>
+        <v>1762546901.215522</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1147171960469731</v>
+        <v>0.0829868297332665</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02373578325703754</v>
+        <v>0.03264490570341678</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2311249800.277382</v>
+        <v>2042545041.215786</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1769168161134003</v>
+        <v>0.1357646774334661</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05719354565655749</v>
+        <v>0.05900722998860201</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1424869351.212231</v>
+        <v>1449240953.775121</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1020422172464305</v>
+        <v>0.08707210658116145</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02128145442888606</v>
+        <v>0.02746499396065631</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1355504992.904173</v>
+        <v>1080739097.74585</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170448483080817</v>
+        <v>0.08333056363052654</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03209376845255426</v>
+        <v>0.04131732388260626</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3158183404.744658</v>
+        <v>2512131384.557732</v>
       </c>
       <c r="F36" t="n">
-        <v>0.166161582816892</v>
+        <v>0.171646886196357</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02342166886991789</v>
+        <v>0.0223164905537165</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2564404829.538128</v>
+        <v>1856944471.719203</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08800306850641371</v>
+        <v>0.07489546611653418</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0269767391908145</v>
+        <v>0.03972408840757118</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1951771212.9681</v>
+        <v>1954475051.019657</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054041615864321</v>
+        <v>0.09568457122569192</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02414991697993876</v>
+        <v>0.02770108360208102</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1909780621.481778</v>
+        <v>1548880219.318394</v>
       </c>
       <c r="F39" t="n">
-        <v>0.161957309832886</v>
+        <v>0.1542061592217923</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02844493815176444</v>
+        <v>0.02502560043669192</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1513365548.507411</v>
+        <v>1582991889.113039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1040893530734358</v>
+        <v>0.150193689728351</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04704794093294199</v>
+        <v>0.04496532075689273</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2523639708.023098</v>
+        <v>2850685825.477289</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1417576900961449</v>
+        <v>0.1362621141469008</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04044254798521819</v>
+        <v>0.03469408025381351</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3854470006.487676</v>
+        <v>3671751986.914119</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09174997422967152</v>
+        <v>0.1040618262215715</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02937217543679565</v>
+        <v>0.02808037872439795</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>288</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2253893835.664215</v>
+        <v>2187959706.406842</v>
       </c>
       <c r="F43" t="n">
-        <v>0.197184899875363</v>
+        <v>0.1552104768392139</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0178222094587104</v>
+        <v>0.01710667783955164</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2233207044.567497</v>
+        <v>1428193032.491155</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08315016925746735</v>
+        <v>0.07605750805404318</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02543706398758084</v>
+        <v>0.02932282148140884</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2182565392.793169</v>
+        <v>2430777011.273085</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1278657837427658</v>
+        <v>0.123762251475082</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05403782054295001</v>
+        <v>0.03982796495096287</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5214756778.373001</v>
+        <v>5557317145.127705</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1390169146179936</v>
+        <v>0.1157392306890799</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05195211353489439</v>
+        <v>0.05202699900270273</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>170</v>
+      </c>
+      <c r="J46" t="n">
+        <v>287</v>
+      </c>
+      <c r="K46" t="n">
+        <v>87.55478121271106</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5007204114.777721</v>
+        <v>4919079665.990629</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1749180173219534</v>
+        <v>0.19011472578956</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05546876007624572</v>
+        <v>0.05641857296146351</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>129</v>
+      </c>
+      <c r="J47" t="n">
+        <v>287</v>
+      </c>
+      <c r="K47" t="n">
+        <v>72.48148680617919</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2129,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4260834231.78809</v>
+        <v>4032342783.289456</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07238013136144644</v>
+        <v>0.09171422466344832</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02872312398239339</v>
+        <v>0.03169079694096969</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>143</v>
+      </c>
+      <c r="J48" t="n">
+        <v>288</v>
+      </c>
+      <c r="K48" t="n">
+        <v>94.93668688909304</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1471230654.256909</v>
+        <v>1476603828.965646</v>
       </c>
       <c r="F49" t="n">
-        <v>0.119925063484972</v>
+        <v>0.1413470761721771</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04000609616903266</v>
+        <v>0.04446435789567959</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3119803327.848711</v>
+        <v>3022192530.876214</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1477243664766855</v>
+        <v>0.167841428783157</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04083674434740842</v>
+        <v>0.04585223662450934</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>92</v>
+      </c>
+      <c r="J50" t="n">
+        <v>287</v>
+      </c>
+      <c r="K50" t="n">
+        <v>53.27506068247138</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083941012.015744</v>
+        <v>1127270407.953359</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1769790266037415</v>
+        <v>0.1851285113060664</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04473906885549789</v>
+        <v>0.03650959727443841</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3379944687.704714</v>
+        <v>3680354587.977068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1004426987726518</v>
+        <v>0.1391131320073987</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04864212640499017</v>
+        <v>0.05026157182808181</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>179</v>
+      </c>
+      <c r="J52" t="n">
+        <v>288</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2951953083.039598</v>
+        <v>2859471488.859818</v>
       </c>
       <c r="F53" t="n">
-        <v>0.194789024766544</v>
+        <v>0.1587731551567607</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02918237051942624</v>
+        <v>0.02482658207732118</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4527906914.515945</v>
+        <v>4174805216.392153</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1183058541281</v>
+        <v>0.1084197703691882</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0518754719143058</v>
+        <v>0.05230106908469362</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>152</v>
+      </c>
+      <c r="J54" t="n">
+        <v>288</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4430436437.378478</v>
+        <v>3698386261.692756</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1823292966623664</v>
+        <v>0.1964460215722463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03082378807737628</v>
+        <v>0.02936383286423652</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>131</v>
+      </c>
+      <c r="J55" t="n">
+        <v>287</v>
+      </c>
+      <c r="K55" t="n">
+        <v>75.50072268496471</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1782516555.081568</v>
+        <v>1445578586.270163</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1250926225473966</v>
+        <v>0.1577974899329484</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04606966151887457</v>
+        <v>0.0558355832983694</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3051702962.91764</v>
+        <v>3371741581.222146</v>
       </c>
       <c r="F57" t="n">
-        <v>0.183156643851015</v>
+        <v>0.1477871852100123</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01724592877168174</v>
+        <v>0.01739796298943814</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>117</v>
+      </c>
+      <c r="J57" t="n">
+        <v>286</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1315349977.241004</v>
+        <v>1832383098.937697</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2018420604740922</v>
+        <v>0.127421503138737</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02421515710215654</v>
+        <v>0.02556432202110649</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5348810820.306268</v>
+        <v>3581268902.950682</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122564765351075</v>
+        <v>0.09826189703163729</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03591245667464273</v>
+        <v>0.04439273184192621</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>139</v>
+      </c>
+      <c r="J59" t="n">
+        <v>287</v>
+      </c>
+      <c r="K59" t="n">
+        <v>66.45877929832625</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2382859945.342773</v>
+        <v>3065685708.431358</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1523698196525809</v>
+        <v>0.1962303366900995</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02393022227656031</v>
+        <v>0.02695920337738219</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2829356603.331265</v>
+        <v>3263323031.904512</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1680856090003427</v>
+        <v>0.1476320658001108</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02838271194899706</v>
+        <v>0.02329916527361766</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2052828704.883334</v>
+        <v>1438456621.145839</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1711065768025047</v>
+        <v>0.1687594130774366</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04517666850102631</v>
+        <v>0.03062798681277979</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4197161549.259025</v>
+        <v>4475740657.57842</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1021798660929971</v>
+        <v>0.07591964322444282</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04710713444501326</v>
+        <v>0.03862007354164</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>140</v>
+      </c>
+      <c r="J63" t="n">
+        <v>287</v>
+      </c>
+      <c r="K63" t="n">
+        <v>83.15965553191974</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5107638987.585138</v>
+        <v>5180276146.02599</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228567843516864</v>
+        <v>0.1587497690413042</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03227202068721352</v>
+        <v>0.02984989198162149</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>141</v>
+      </c>
+      <c r="J64" t="n">
+        <v>288</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4085377076.125113</v>
+        <v>4460646997.743598</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1562324364820468</v>
+        <v>0.1356094788090707</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03188425777286894</v>
+        <v>0.02300433903545593</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>230</v>
+      </c>
+      <c r="J65" t="n">
+        <v>288</v>
+      </c>
+      <c r="K65" t="n">
+        <v>88.38723523860415</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4980666909.88134</v>
+        <v>4918565257.514252</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10498789401644</v>
+        <v>0.1070861187830097</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04483193932772794</v>
+        <v>0.03398642641906223</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>142</v>
+      </c>
+      <c r="J66" t="n">
+        <v>288</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2137995624.730946</v>
+        <v>3187901827.417761</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0818575190782319</v>
+        <v>0.09817855975444605</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03309812000600785</v>
+        <v>0.04631807712549735</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5813138223.150729</v>
+        <v>4807523578.579122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1039609982813949</v>
+        <v>0.1339350023062459</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04021385700160458</v>
+        <v>0.0448593962155282</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>151</v>
+      </c>
+      <c r="J68" t="n">
+        <v>288</v>
+      </c>
+      <c r="K68" t="n">
+        <v>88.27061403172922</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2293600191.849057</v>
+        <v>1802106857.544777</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1837060591688443</v>
+        <v>0.1187818064081742</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04709725787576969</v>
+        <v>0.04338123807720747</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3625438496.657913</v>
+        <v>2928494382.462675</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07550151808060453</v>
+        <v>0.07038921069756063</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04042738680515615</v>
+        <v>0.04781148052588647</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>286</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4191689422.104517</v>
+        <v>4793859711.613079</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1798465092473582</v>
+        <v>0.175846782882493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02054538180370594</v>
+        <v>0.0303900587822374</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>215</v>
+      </c>
+      <c r="J71" t="n">
+        <v>288</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1474118380.43307</v>
+        <v>1970097500.049551</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09330769465057503</v>
+        <v>0.08151790034606252</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04184102332178025</v>
+        <v>0.05118614456381547</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2369599142.693207</v>
+        <v>3227319685.657795</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09068362185208206</v>
+        <v>0.1085482094090578</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03967049625665062</v>
+        <v>0.05076394887758527</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3702695655.756721</v>
+        <v>2854022612.506982</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1234542610563166</v>
+        <v>0.1464110607622697</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02969312160694314</v>
+        <v>0.02611733582990332</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>77</v>
+      </c>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2252126743.938879</v>
+        <v>1858697064.341928</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1220994045128918</v>
+        <v>0.1592138774905065</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03097626639497173</v>
+        <v>0.03449702848973776</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4970259659.347145</v>
+        <v>4262985799.073594</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1238513213883375</v>
+        <v>0.1067023920283817</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02439155478405925</v>
+        <v>0.03038280110821802</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>135</v>
+      </c>
+      <c r="J76" t="n">
+        <v>287</v>
+      </c>
+      <c r="K76" t="n">
+        <v>82.01719380649695</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1686291670.29166</v>
+        <v>1651000058.401623</v>
       </c>
       <c r="F77" t="n">
-        <v>0.173667605624098</v>
+        <v>0.1518956042876459</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02254325766844047</v>
+        <v>0.03058279351829474</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3963997143.242476</v>
+        <v>4487405408.932161</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1263872810024661</v>
+        <v>0.08880614483077431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03574966318920252</v>
+        <v>0.05650515939436348</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>143</v>
+      </c>
+      <c r="J78" t="n">
+        <v>288</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1881032206.602318</v>
+        <v>1314123537.620885</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1314571070143954</v>
+        <v>0.1356387067896442</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02674929554071252</v>
+        <v>0.02935720493483727</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3518016682.56938</v>
+        <v>3433952524.328598</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1104709360082478</v>
+        <v>0.08866796911702192</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02486605641894615</v>
+        <v>0.0292951123077779</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>141</v>
+      </c>
+      <c r="J80" t="n">
+        <v>287</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.17621995387535</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4380958798.788034</v>
+        <v>5145722310.574718</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1012389424899108</v>
+        <v>0.1294081137821349</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02390845892783599</v>
+        <v>0.02701764432879383</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>132</v>
+      </c>
+      <c r="J81" t="n">
+        <v>288</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3659708409.538548</v>
+        <v>3833718299.450219</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1700210778221297</v>
+        <v>0.1633187225008146</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02456318908596084</v>
+        <v>0.0271076811679089</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>212</v>
+      </c>
+      <c r="J82" t="n">
+        <v>288</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1766759747.363393</v>
+        <v>1660454245.48987</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1139082075924444</v>
+        <v>0.1443109663869499</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04557530878995489</v>
+        <v>0.04048065928166721</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2433891808.227508</v>
+        <v>2425337079.127355</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07884924821892286</v>
+        <v>0.1003886638444757</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03228015600846894</v>
+        <v>0.03269793723616804</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2232881660.048278</v>
+        <v>2807174982.72888</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1484817972990873</v>
+        <v>0.1176489632867352</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05324713233539196</v>
+        <v>0.03612137186655075</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2420088810.24191</v>
+        <v>1862152682.253057</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1137308472749014</v>
+        <v>0.1223735163440555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02112943953990059</v>
+        <v>0.02189602763754081</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1018453631.467836</v>
+        <v>1295647828.437425</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1552909390656275</v>
+        <v>0.1890365857684812</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03728608591967796</v>
+        <v>0.03409583687315593</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3568975076.383756</v>
+        <v>2769915128.768012</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1738624087095765</v>
+        <v>0.1554393108500698</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02875154686831376</v>
+        <v>0.02814478745497249</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2571961415.013678</v>
+        <v>2457978456.580165</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1488630001021798</v>
+        <v>0.1201033913665399</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02636629162219307</v>
+        <v>0.0259206946598476</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1830387029.526772</v>
+        <v>1705131936.076511</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08798809116980943</v>
+        <v>0.08512952886013148</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05285940446844212</v>
+        <v>0.05504376466157944</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1995728668.114513</v>
+        <v>1938667655.467634</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1772596850780454</v>
+        <v>0.1365962525020583</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06090768759387289</v>
+        <v>0.04130160251095296</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2055285586.401658</v>
+        <v>2393841145.916547</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09165162443903767</v>
+        <v>0.07851935745028575</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03615174901513814</v>
+        <v>0.03541300960161355</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4236592109.008668</v>
+        <v>5040063019.127761</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09989211173807319</v>
+        <v>0.1026834697412539</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04405756120611692</v>
+        <v>0.03402175849486098</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>126</v>
+      </c>
+      <c r="J93" t="n">
+        <v>288</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1933716326.133959</v>
+        <v>1740634417.061529</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1586732638196891</v>
+        <v>0.1619836928451097</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03133162095014824</v>
+        <v>0.03572626921504109</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2755600847.032241</v>
+        <v>3247422120.187856</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1244230203951307</v>
+        <v>0.09416883004844354</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04854817401682191</v>
+        <v>0.04112681358205866</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1905900511.065299</v>
+        <v>1793573731.920994</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09008573550388259</v>
+        <v>0.1214693920076647</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02957788031742383</v>
+        <v>0.04249843498496774</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3812788707.775223</v>
+        <v>3832346077.695698</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1621371314478274</v>
+        <v>0.1363848006600841</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02201003500533091</v>
+        <v>0.02268067210743211</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>143</v>
+      </c>
+      <c r="J97" t="n">
+        <v>287</v>
+      </c>
+      <c r="K97" t="n">
+        <v>81.41213070884443</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3071628437.916118</v>
+        <v>3658441571.009576</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1154215318718155</v>
+        <v>0.1038857251814912</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02892378889224233</v>
+        <v>0.02345872377863494</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>69</v>
+      </c>
+      <c r="J98" t="n">
+        <v>288</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2875413977.189394</v>
+        <v>3364964220.912043</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1410260905889738</v>
+        <v>0.1423998023247486</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0339551121851596</v>
+        <v>0.03398905409621715</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2921085384.993158</v>
+        <v>3846369663.781842</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1757278701924211</v>
+        <v>0.111474463116983</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02707644765348317</v>
+        <v>0.02633788927886835</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>123</v>
+      </c>
+      <c r="J100" t="n">
+        <v>287</v>
+      </c>
+      <c r="K100" t="n">
+        <v>80.70799178059605</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3027847326.737728</v>
+        <v>2372748721.698975</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1846872196940972</v>
+        <v>0.2209844141702918</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05159791977081893</v>
+        <v>0.05838766463976504</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
